--- a/src/Data/Students.xlsx
+++ b/src/Data/Students.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -62,6 +62,150 @@
   </si>
   <si>
     <t>xyz4</t>
+  </si>
+  <si>
+    <t>user5</t>
+  </si>
+  <si>
+    <t>user6</t>
+  </si>
+  <si>
+    <t>user7</t>
+  </si>
+  <si>
+    <t>user8</t>
+  </si>
+  <si>
+    <t>user9</t>
+  </si>
+  <si>
+    <t>user10</t>
+  </si>
+  <si>
+    <t>user11</t>
+  </si>
+  <si>
+    <t>user12</t>
+  </si>
+  <si>
+    <t>user13</t>
+  </si>
+  <si>
+    <t>user14</t>
+  </si>
+  <si>
+    <t>user15</t>
+  </si>
+  <si>
+    <t>user16</t>
+  </si>
+  <si>
+    <t>user17</t>
+  </si>
+  <si>
+    <t>user18</t>
+  </si>
+  <si>
+    <t>user19</t>
+  </si>
+  <si>
+    <t>user20</t>
+  </si>
+  <si>
+    <t>surname5</t>
+  </si>
+  <si>
+    <t>surname6</t>
+  </si>
+  <si>
+    <t>surname7</t>
+  </si>
+  <si>
+    <t>surname8</t>
+  </si>
+  <si>
+    <t>surname9</t>
+  </si>
+  <si>
+    <t>surname10</t>
+  </si>
+  <si>
+    <t>surname11</t>
+  </si>
+  <si>
+    <t>surname12</t>
+  </si>
+  <si>
+    <t>surname13</t>
+  </si>
+  <si>
+    <t>surname14</t>
+  </si>
+  <si>
+    <t>surname15</t>
+  </si>
+  <si>
+    <t>surname16</t>
+  </si>
+  <si>
+    <t>surname17</t>
+  </si>
+  <si>
+    <t>surname18</t>
+  </si>
+  <si>
+    <t>surname19</t>
+  </si>
+  <si>
+    <t>surname20</t>
+  </si>
+  <si>
+    <t>xyz5</t>
+  </si>
+  <si>
+    <t>xyz6</t>
+  </si>
+  <si>
+    <t>xyz7</t>
+  </si>
+  <si>
+    <t>xyz8</t>
+  </si>
+  <si>
+    <t>xyz9</t>
+  </si>
+  <si>
+    <t>xyz10</t>
+  </si>
+  <si>
+    <t>xyz11</t>
+  </si>
+  <si>
+    <t>xyz12</t>
+  </si>
+  <si>
+    <t>xyz13</t>
+  </si>
+  <si>
+    <t>xyz14</t>
+  </si>
+  <si>
+    <t>xyz15</t>
+  </si>
+  <si>
+    <t>xyz16</t>
+  </si>
+  <si>
+    <t>xyz17</t>
+  </si>
+  <si>
+    <t>xyz18</t>
+  </si>
+  <si>
+    <t>xyz19</t>
+  </si>
+  <si>
+    <t>xyz20</t>
   </si>
 </sst>
 </file>
@@ -403,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,6 +625,230 @@
         <v>15</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>7005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>7011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>7012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>7013</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>7014</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>7015</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7016</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>7017</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>7018</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>7019</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>7020</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/src/Data/Students.xlsx
+++ b/src/Data/Students.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -62,150 +62,6 @@
   </si>
   <si>
     <t>xyz4</t>
-  </si>
-  <si>
-    <t>user5</t>
-  </si>
-  <si>
-    <t>user6</t>
-  </si>
-  <si>
-    <t>user7</t>
-  </si>
-  <si>
-    <t>user8</t>
-  </si>
-  <si>
-    <t>user9</t>
-  </si>
-  <si>
-    <t>user10</t>
-  </si>
-  <si>
-    <t>user11</t>
-  </si>
-  <si>
-    <t>user12</t>
-  </si>
-  <si>
-    <t>user13</t>
-  </si>
-  <si>
-    <t>user14</t>
-  </si>
-  <si>
-    <t>user15</t>
-  </si>
-  <si>
-    <t>user16</t>
-  </si>
-  <si>
-    <t>user17</t>
-  </si>
-  <si>
-    <t>user18</t>
-  </si>
-  <si>
-    <t>user19</t>
-  </si>
-  <si>
-    <t>user20</t>
-  </si>
-  <si>
-    <t>surname5</t>
-  </si>
-  <si>
-    <t>surname6</t>
-  </si>
-  <si>
-    <t>surname7</t>
-  </si>
-  <si>
-    <t>surname8</t>
-  </si>
-  <si>
-    <t>surname9</t>
-  </si>
-  <si>
-    <t>surname10</t>
-  </si>
-  <si>
-    <t>surname11</t>
-  </si>
-  <si>
-    <t>surname12</t>
-  </si>
-  <si>
-    <t>surname13</t>
-  </si>
-  <si>
-    <t>surname14</t>
-  </si>
-  <si>
-    <t>surname15</t>
-  </si>
-  <si>
-    <t>surname16</t>
-  </si>
-  <si>
-    <t>surname17</t>
-  </si>
-  <si>
-    <t>surname18</t>
-  </si>
-  <si>
-    <t>surname19</t>
-  </si>
-  <si>
-    <t>surname20</t>
-  </si>
-  <si>
-    <t>xyz5</t>
-  </si>
-  <si>
-    <t>xyz6</t>
-  </si>
-  <si>
-    <t>xyz7</t>
-  </si>
-  <si>
-    <t>xyz8</t>
-  </si>
-  <si>
-    <t>xyz9</t>
-  </si>
-  <si>
-    <t>xyz10</t>
-  </si>
-  <si>
-    <t>xyz11</t>
-  </si>
-  <si>
-    <t>xyz12</t>
-  </si>
-  <si>
-    <t>xyz13</t>
-  </si>
-  <si>
-    <t>xyz14</t>
-  </si>
-  <si>
-    <t>xyz15</t>
-  </si>
-  <si>
-    <t>xyz16</t>
-  </si>
-  <si>
-    <t>xyz17</t>
-  </si>
-  <si>
-    <t>xyz18</t>
-  </si>
-  <si>
-    <t>xyz19</t>
-  </si>
-  <si>
-    <t>xyz20</t>
   </si>
 </sst>
 </file>
@@ -547,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,230 +481,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>7005</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>7006</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7007</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7008</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>7009</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>7010</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>7011</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>7012</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>7013</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>7014</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>7015</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>7016</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>7017</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>7018</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>7019</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>7020</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" t="s">
-        <v>63</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
